--- a/biology/Médecine/De_chaque_instant/De_chaque_instant.xlsx
+++ b/biology/Médecine/De_chaque_instant/De_chaque_instant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">De chaque instant est un film documentaire français réalisé par Nicolas Philibert et sorti en 2018.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le documentaire suit la formation des élèves dans un Institut de formation en soins infirmiers.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : De chaque instant
 Réalisation : Nicolas Philibert
@@ -585,10 +601,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-En  janvier 2016, Nicolas Philibert fait une embolie qui le conduit aux urgences puis dans un service de soins intensifs. Une fois tiré d'affaire, il décide de faire un film consacré aux infirmières et infirmiers[1].
-Tournage
-Le documentaire a été tourné à l'IFPS Fondation Œuvre de la Croix Saint-Simon à Montreuil[1].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En  janvier 2016, Nicolas Philibert fait une embolie qui le conduit aux urgences puis dans un service de soins intensifs. Une fois tiré d'affaire, il décide de faire un film consacré aux infirmières et infirmiers.
 </t>
         </is>
       </c>
@@ -614,13 +633,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sortie</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-En France, le site Allociné recense une moyenne des critiques presse de 3,8/5, et des critiques spectateurs à 3,3/5[2].
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le documentaire a été tourné à l'IFPS Fondation Œuvre de la Croix Saint-Simon à Montreuil.
 </t>
         </is>
       </c>
@@ -646,15 +670,91 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site Allociné recense une moyenne des critiques presse de 3,8/5, et des critiques spectateurs à 3,3/5.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>De_chaque_instant</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_chaque_instant</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sélections
-Festival international du film de Locarno 2018 : sélection hors compétition.
-Nominations
-César 2019 :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Festival international du film de Locarno 2018 : sélection hors compétition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>De_chaque_instant</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_chaque_instant</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>César 2019 :
 César du meilleur film documentaire pour Nicolas Philibert</t>
         </is>
       </c>
